--- a/bin/sample/subfolder/sample2.xlsx
+++ b/bin/sample/subfolder/sample2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excelmacro\excelTextSearchMacro\bin\sample\subfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5115F95-0FAD-441B-8671-7E9A3C24F294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F4E0D-5D7C-4372-ABB9-24CD18A9FCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
